--- a/www/bench.xlsx
+++ b/www/bench.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="1520" windowWidth="25360" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>^IBEX</t>
   </si>
@@ -133,13 +133,22 @@
   </si>
   <si>
     <t>QQQ</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>EUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,6 +177,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,22 +202,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -531,168 +552,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1048576" spans="3:3">
+      <c r="C1048576" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
